--- a/Excel-XLSX/UN-COS.xlsx
+++ b/Excel-XLSX/UN-COS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1441">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>72dw0J</t>
+    <t>kOD1by</t>
   </si>
   <si>
     <t>1972</t>
@@ -4113,28 +4113,49 @@
     <t>921</t>
   </si>
   <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
     <t>922</t>
   </si>
   <si>
+    <t>7190</t>
+  </si>
+  <si>
+    <t>4490</t>
+  </si>
+  <si>
     <t>923</t>
   </si>
   <si>
-    <t>2291</t>
-  </si>
-  <si>
-    <t>4095</t>
+    <t>3115</t>
   </si>
   <si>
     <t>924</t>
   </si>
   <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>6744</t>
+  </si>
+  <si>
     <t>925</t>
   </si>
   <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>6600</t>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>CVI</t>
+  </si>
+  <si>
+    <t>CPV</t>
   </si>
   <si>
     <t>926</t>
@@ -4191,12 +4212,12 @@
     <t>940</t>
   </si>
   <si>
-    <t>1163</t>
-  </si>
-  <si>
     <t>941</t>
   </si>
   <si>
+    <t>1150</t>
+  </si>
+  <si>
     <t>942</t>
   </si>
   <si>
@@ -4233,15 +4254,15 @@
     <t>953</t>
   </si>
   <si>
-    <t>16573</t>
-  </si>
-  <si>
-    <t>180211</t>
-  </si>
-  <si>
     <t>955</t>
   </si>
   <si>
+    <t>15327</t>
+  </si>
+  <si>
+    <t>190037</t>
+  </si>
+  <si>
     <t>956</t>
   </si>
   <si>
@@ -4266,15 +4287,15 @@
     <t>965</t>
   </si>
   <si>
-    <t>1632</t>
-  </si>
-  <si>
-    <t>1143</t>
-  </si>
-  <si>
     <t>967</t>
   </si>
   <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>1153</t>
+  </si>
+  <si>
     <t>968</t>
   </si>
   <si>
@@ -4290,12 +4311,12 @@
     <t>974</t>
   </si>
   <si>
-    <t>13162</t>
-  </si>
-  <si>
     <t>975</t>
   </si>
   <si>
+    <t>17079</t>
+  </si>
+  <si>
     <t>976</t>
   </si>
   <si>
@@ -4305,13 +4326,19 @@
     <t>978</t>
   </si>
   <si>
-    <t>5658</t>
-  </si>
-  <si>
-    <t>9928</t>
-  </si>
-  <si>
-    <t>13462</t>
+    <t>979</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>5585</t>
+  </si>
+  <si>
+    <t>10476</t>
+  </si>
+  <si>
+    <t>13283</t>
   </si>
 </sst>
 </file>
@@ -4696,7 +4723,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V979"/>
+  <dimension ref="A1:V981"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -66356,7 +66383,7 @@
         <v>33</v>
       </c>
       <c r="O907" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="P907" s="2" t="s">
         <v>33</v>
@@ -66397,16 +66424,16 @@
         <v>1352</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G908" s="1" t="s">
-        <v>1156</v>
+        <v>109</v>
       </c>
       <c r="H908" s="1" t="s">
-        <v>1157</v>
+        <v>110</v>
       </c>
       <c r="I908" s="1" t="s">
-        <v>1158</v>
+        <v>110</v>
       </c>
       <c r="J908" s="2" t="s">
         <v>28</v>
@@ -66421,10 +66448,10 @@
         <v>31</v>
       </c>
       <c r="N908" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O908" s="2" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="P908" s="2" t="s">
         <v>33</v>
@@ -66465,16 +66492,16 @@
         <v>1352</v>
       </c>
       <c r="F909" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G909" s="1" t="s">
-        <v>109</v>
+        <v>1161</v>
       </c>
       <c r="H909" s="1" t="s">
-        <v>110</v>
+        <v>1162</v>
       </c>
       <c r="I909" s="1" t="s">
-        <v>110</v>
+        <v>1163</v>
       </c>
       <c r="J909" s="2" t="s">
         <v>28</v>
@@ -66492,7 +66519,7 @@
         <v>33</v>
       </c>
       <c r="O909" s="2" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="P909" s="2" t="s">
         <v>33</v>
@@ -66533,16 +66560,16 @@
         <v>1352</v>
       </c>
       <c r="F910" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G910" s="1" t="s">
-        <v>1161</v>
+        <v>562</v>
       </c>
       <c r="H910" s="1" t="s">
-        <v>1162</v>
+        <v>563</v>
       </c>
       <c r="I910" s="1" t="s">
-        <v>1163</v>
+        <v>563</v>
       </c>
       <c r="J910" s="2" t="s">
         <v>28</v>
@@ -66560,7 +66587,7 @@
         <v>33</v>
       </c>
       <c r="O910" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P910" s="2" t="s">
         <v>33</v>
@@ -66601,16 +66628,16 @@
         <v>1352</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G911" s="1" t="s">
-        <v>943</v>
+        <v>377</v>
       </c>
       <c r="H911" s="1" t="s">
-        <v>944</v>
+        <v>378</v>
       </c>
       <c r="I911" s="1" t="s">
-        <v>944</v>
+        <v>378</v>
       </c>
       <c r="J911" s="2" t="s">
         <v>28</v>
@@ -66625,10 +66652,10 @@
         <v>31</v>
       </c>
       <c r="N911" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O911" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P911" s="2" t="s">
         <v>33</v>
@@ -66669,16 +66696,16 @@
         <v>1352</v>
       </c>
       <c r="F912" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G912" s="1" t="s">
-        <v>562</v>
+        <v>447</v>
       </c>
       <c r="H912" s="1" t="s">
-        <v>563</v>
+        <v>448</v>
       </c>
       <c r="I912" s="1" t="s">
-        <v>563</v>
+        <v>448</v>
       </c>
       <c r="J912" s="2" t="s">
         <v>28</v>
@@ -66693,10 +66720,10 @@
         <v>31</v>
       </c>
       <c r="N912" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O912" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="P912" s="2" t="s">
         <v>33</v>
@@ -66737,16 +66764,16 @@
         <v>1352</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G913" s="1" t="s">
-        <v>377</v>
+        <v>727</v>
       </c>
       <c r="H913" s="1" t="s">
-        <v>378</v>
+        <v>728</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>378</v>
+        <v>728</v>
       </c>
       <c r="J913" s="2" t="s">
         <v>28</v>
@@ -66764,7 +66791,7 @@
         <v>33</v>
       </c>
       <c r="O913" s="2" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="P913" s="2" t="s">
         <v>33</v>
@@ -66805,16 +66832,16 @@
         <v>1352</v>
       </c>
       <c r="F914" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G914" s="1" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="H914" s="1" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="I914" s="1" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="J914" s="2" t="s">
         <v>28</v>
@@ -66829,10 +66856,10 @@
         <v>31</v>
       </c>
       <c r="N914" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="O914" s="2" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="P914" s="2" t="s">
         <v>33</v>
@@ -66873,16 +66900,16 @@
         <v>1352</v>
       </c>
       <c r="F915" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G915" s="1" t="s">
-        <v>727</v>
+        <v>1171</v>
       </c>
       <c r="H915" s="1" t="s">
-        <v>728</v>
+        <v>1172</v>
       </c>
       <c r="I915" s="1" t="s">
-        <v>728</v>
+        <v>1173</v>
       </c>
       <c r="J915" s="2" t="s">
         <v>28</v>
@@ -66900,7 +66927,7 @@
         <v>33</v>
       </c>
       <c r="O915" s="2" t="s">
-        <v>368</v>
+        <v>50</v>
       </c>
       <c r="P915" s="2" t="s">
         <v>33</v>
@@ -66941,16 +66968,16 @@
         <v>1352</v>
       </c>
       <c r="F916" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G916" s="1" t="s">
-        <v>380</v>
+        <v>833</v>
       </c>
       <c r="H916" s="1" t="s">
-        <v>381</v>
+        <v>834</v>
       </c>
       <c r="I916" s="1" t="s">
-        <v>382</v>
+        <v>834</v>
       </c>
       <c r="J916" s="2" t="s">
         <v>28</v>
@@ -66968,7 +66995,7 @@
         <v>33</v>
       </c>
       <c r="O916" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P916" s="2" t="s">
         <v>33</v>
@@ -67009,16 +67036,16 @@
         <v>1352</v>
       </c>
       <c r="F917" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G917" s="1" t="s">
-        <v>1171</v>
+        <v>895</v>
       </c>
       <c r="H917" s="1" t="s">
-        <v>1172</v>
+        <v>896</v>
       </c>
       <c r="I917" s="1" t="s">
-        <v>1173</v>
+        <v>897</v>
       </c>
       <c r="J917" s="2" t="s">
         <v>28</v>
@@ -67036,7 +67063,7 @@
         <v>33</v>
       </c>
       <c r="O917" s="2" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="P917" s="2" t="s">
         <v>33</v>
@@ -67077,16 +67104,16 @@
         <v>1352</v>
       </c>
       <c r="F918" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="G918" s="1" t="s">
-        <v>833</v>
+        <v>44</v>
       </c>
       <c r="H918" s="1" t="s">
-        <v>834</v>
+        <v>45</v>
       </c>
       <c r="I918" s="1" t="s">
-        <v>834</v>
+        <v>45</v>
       </c>
       <c r="J918" s="2" t="s">
         <v>28</v>
@@ -67104,7 +67131,7 @@
         <v>33</v>
       </c>
       <c r="O918" s="2" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="P918" s="2" t="s">
         <v>33</v>
@@ -67145,16 +67172,16 @@
         <v>1352</v>
       </c>
       <c r="F919" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G919" s="1" t="s">
-        <v>895</v>
+        <v>637</v>
       </c>
       <c r="H919" s="1" t="s">
-        <v>896</v>
+        <v>638</v>
       </c>
       <c r="I919" s="1" t="s">
-        <v>897</v>
+        <v>638</v>
       </c>
       <c r="J919" s="2" t="s">
         <v>28</v>
@@ -67169,10 +67196,10 @@
         <v>31</v>
       </c>
       <c r="N919" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O919" s="2" t="s">
-        <v>706</v>
+        <v>93</v>
       </c>
       <c r="P919" s="2" t="s">
         <v>33</v>
@@ -67213,16 +67240,16 @@
         <v>1352</v>
       </c>
       <c r="F920" s="2" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="G920" s="1" t="s">
-        <v>44</v>
+        <v>794</v>
       </c>
       <c r="H920" s="1" t="s">
-        <v>45</v>
+        <v>795</v>
       </c>
       <c r="I920" s="1" t="s">
-        <v>45</v>
+        <v>796</v>
       </c>
       <c r="J920" s="2" t="s">
         <v>28</v>
@@ -67240,7 +67267,7 @@
         <v>50</v>
       </c>
       <c r="O920" s="2" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="P920" s="2" t="s">
         <v>33</v>
@@ -67281,16 +67308,16 @@
         <v>1352</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G921" s="1" t="s">
-        <v>637</v>
+        <v>383</v>
       </c>
       <c r="H921" s="1" t="s">
-        <v>638</v>
+        <v>384</v>
       </c>
       <c r="I921" s="1" t="s">
-        <v>638</v>
+        <v>384</v>
       </c>
       <c r="J921" s="2" t="s">
         <v>28</v>
@@ -67305,10 +67332,10 @@
         <v>31</v>
       </c>
       <c r="N921" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O921" s="2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="P921" s="2" t="s">
         <v>33</v>
@@ -67349,16 +67376,16 @@
         <v>1352</v>
       </c>
       <c r="F922" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G922" s="1" t="s">
-        <v>794</v>
+        <v>1365</v>
       </c>
       <c r="H922" s="1" t="s">
-        <v>795</v>
+        <v>1366</v>
       </c>
       <c r="I922" s="1" t="s">
-        <v>796</v>
+        <v>1367</v>
       </c>
       <c r="J922" s="2" t="s">
         <v>28</v>
@@ -67373,10 +67400,10 @@
         <v>31</v>
       </c>
       <c r="N922" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O922" s="2" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="P922" s="2" t="s">
         <v>33</v>
@@ -67411,22 +67438,22 @@
         <v>22</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="E923" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F923" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G923" s="1" t="s">
-        <v>383</v>
+        <v>221</v>
       </c>
       <c r="H923" s="1" t="s">
-        <v>384</v>
+        <v>222</v>
       </c>
       <c r="I923" s="1" t="s">
-        <v>384</v>
+        <v>222</v>
       </c>
       <c r="J923" s="2" t="s">
         <v>28</v>
@@ -67441,10 +67468,10 @@
         <v>31</v>
       </c>
       <c r="N923" s="2" t="s">
-        <v>76</v>
+        <v>1369</v>
       </c>
       <c r="O923" s="2" t="s">
-        <v>170</v>
+        <v>1370</v>
       </c>
       <c r="P923" s="2" t="s">
         <v>33</v>
@@ -67479,22 +67506,22 @@
         <v>22</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="E924" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F924" s="2" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="G924" s="1" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="H924" s="1" t="s">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="I924" s="1" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="J924" s="2" t="s">
         <v>28</v>
@@ -67509,10 +67536,10 @@
         <v>31</v>
       </c>
       <c r="N924" s="2" t="s">
-        <v>1367</v>
+        <v>33</v>
       </c>
       <c r="O924" s="2" t="s">
-        <v>1368</v>
+        <v>33</v>
       </c>
       <c r="P924" s="2" t="s">
         <v>33</v>
@@ -67533,7 +67560,7 @@
         <v>34</v>
       </c>
       <c r="V924" s="2" t="s">
-        <v>33</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="925">
@@ -67547,22 +67574,22 @@
         <v>22</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="E925" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F925" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G925" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H925" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I925" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J925" s="2" t="s">
         <v>28</v>
@@ -67577,10 +67604,10 @@
         <v>31</v>
       </c>
       <c r="N925" s="2" t="s">
-        <v>33</v>
+        <v>1374</v>
       </c>
       <c r="O925" s="2" t="s">
-        <v>33</v>
+        <v>1375</v>
       </c>
       <c r="P925" s="2" t="s">
         <v>33</v>
@@ -67601,7 +67628,7 @@
         <v>34</v>
       </c>
       <c r="V925" s="2" t="s">
-        <v>1184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="926">
@@ -67615,22 +67642,22 @@
         <v>22</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="E926" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F926" s="2" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="G926" s="1" t="s">
-        <v>26</v>
+        <v>1377</v>
       </c>
       <c r="H926" s="1" t="s">
-        <v>27</v>
+        <v>1378</v>
       </c>
       <c r="I926" s="1" t="s">
-        <v>27</v>
+        <v>1379</v>
       </c>
       <c r="J926" s="2" t="s">
         <v>28</v>
@@ -67645,10 +67672,10 @@
         <v>31</v>
       </c>
       <c r="N926" s="2" t="s">
-        <v>1371</v>
+        <v>33</v>
       </c>
       <c r="O926" s="2" t="s">
-        <v>1372</v>
+        <v>50</v>
       </c>
       <c r="P926" s="2" t="s">
         <v>33</v>
@@ -67683,7 +67710,7 @@
         <v>22</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1373</v>
+        <v>1380</v>
       </c>
       <c r="E927" s="2" t="s">
         <v>1352</v>
@@ -67751,7 +67778,7 @@
         <v>22</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1374</v>
+        <v>1381</v>
       </c>
       <c r="E928" s="2" t="s">
         <v>1352</v>
@@ -67781,10 +67808,10 @@
         <v>31</v>
       </c>
       <c r="N928" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O928" s="2" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="P928" s="2" t="s">
         <v>33</v>
@@ -67819,7 +67846,7 @@
         <v>22</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>1375</v>
+        <v>1382</v>
       </c>
       <c r="E929" s="2" t="s">
         <v>1352</v>
@@ -67852,7 +67879,7 @@
         <v>33</v>
       </c>
       <c r="O929" s="2" t="s">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="P929" s="2" t="s">
         <v>33</v>
@@ -67887,7 +67914,7 @@
         <v>22</v>
       </c>
       <c r="D930" s="2" t="s">
-        <v>1376</v>
+        <v>1383</v>
       </c>
       <c r="E930" s="2" t="s">
         <v>1352</v>
@@ -67917,7 +67944,7 @@
         <v>31</v>
       </c>
       <c r="N930" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O930" s="2" t="s">
         <v>50</v>
@@ -67955,7 +67982,7 @@
         <v>22</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>1377</v>
+        <v>1384</v>
       </c>
       <c r="E931" s="2" t="s">
         <v>1352</v>
@@ -68023,7 +68050,7 @@
         <v>22</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1378</v>
+        <v>1385</v>
       </c>
       <c r="E932" s="2" t="s">
         <v>1352</v>
@@ -68091,7 +68118,7 @@
         <v>22</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1379</v>
+        <v>1386</v>
       </c>
       <c r="E933" s="2" t="s">
         <v>1352</v>
@@ -68100,13 +68127,13 @@
         <v>203</v>
       </c>
       <c r="G933" s="1" t="s">
-        <v>1380</v>
+        <v>1387</v>
       </c>
       <c r="H933" s="1" t="s">
-        <v>1381</v>
+        <v>1388</v>
       </c>
       <c r="I933" s="1" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="J933" s="2" t="s">
         <v>28</v>
@@ -68159,7 +68186,7 @@
         <v>22</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>1383</v>
+        <v>1390</v>
       </c>
       <c r="E934" s="2" t="s">
         <v>1352</v>
@@ -68227,22 +68254,22 @@
         <v>22</v>
       </c>
       <c r="D935" s="2" t="s">
-        <v>1384</v>
+        <v>1391</v>
       </c>
       <c r="E935" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F935" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G935" s="1" t="s">
-        <v>846</v>
+        <v>400</v>
       </c>
       <c r="H935" s="1" t="s">
-        <v>847</v>
+        <v>401</v>
       </c>
       <c r="I935" s="1" t="s">
-        <v>848</v>
+        <v>401</v>
       </c>
       <c r="J935" s="2" t="s">
         <v>28</v>
@@ -68257,10 +68284,10 @@
         <v>31</v>
       </c>
       <c r="N935" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O935" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P935" s="2" t="s">
         <v>33</v>
@@ -68295,22 +68322,22 @@
         <v>22</v>
       </c>
       <c r="D936" s="2" t="s">
-        <v>1385</v>
+        <v>1392</v>
       </c>
       <c r="E936" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G936" s="1" t="s">
-        <v>648</v>
+        <v>846</v>
       </c>
       <c r="H936" s="1" t="s">
-        <v>649</v>
+        <v>847</v>
       </c>
       <c r="I936" s="1" t="s">
-        <v>649</v>
+        <v>848</v>
       </c>
       <c r="J936" s="2" t="s">
         <v>28</v>
@@ -68328,7 +68355,7 @@
         <v>33</v>
       </c>
       <c r="O936" s="2" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="P936" s="2" t="s">
         <v>33</v>
@@ -68363,22 +68390,22 @@
         <v>22</v>
       </c>
       <c r="D937" s="2" t="s">
-        <v>1386</v>
+        <v>1393</v>
       </c>
       <c r="E937" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F937" s="2" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="G937" s="1" t="s">
-        <v>69</v>
+        <v>648</v>
       </c>
       <c r="H937" s="1" t="s">
-        <v>70</v>
+        <v>649</v>
       </c>
       <c r="I937" s="1" t="s">
-        <v>71</v>
+        <v>649</v>
       </c>
       <c r="J937" s="2" t="s">
         <v>28</v>
@@ -68393,10 +68420,10 @@
         <v>31</v>
       </c>
       <c r="N937" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="O937" s="2" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="P937" s="2" t="s">
         <v>33</v>
@@ -68431,22 +68458,22 @@
         <v>22</v>
       </c>
       <c r="D938" s="2" t="s">
-        <v>1387</v>
+        <v>1394</v>
       </c>
       <c r="E938" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F938" s="2" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="G938" s="1" t="s">
-        <v>850</v>
+        <v>69</v>
       </c>
       <c r="H938" s="1" t="s">
-        <v>851</v>
+        <v>70</v>
       </c>
       <c r="I938" s="1" t="s">
-        <v>852</v>
+        <v>71</v>
       </c>
       <c r="J938" s="2" t="s">
         <v>28</v>
@@ -68461,10 +68488,10 @@
         <v>31</v>
       </c>
       <c r="N938" s="2" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="O938" s="2" t="s">
-        <v>101</v>
+        <v>402</v>
       </c>
       <c r="P938" s="2" t="s">
         <v>33</v>
@@ -68499,22 +68526,22 @@
         <v>22</v>
       </c>
       <c r="D939" s="2" t="s">
-        <v>1388</v>
+        <v>1395</v>
       </c>
       <c r="E939" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F939" s="2" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="G939" s="1" t="s">
-        <v>1101</v>
+        <v>850</v>
       </c>
       <c r="H939" s="1" t="s">
-        <v>1102</v>
+        <v>851</v>
       </c>
       <c r="I939" s="1" t="s">
-        <v>1102</v>
+        <v>852</v>
       </c>
       <c r="J939" s="2" t="s">
         <v>28</v>
@@ -68532,7 +68559,7 @@
         <v>33</v>
       </c>
       <c r="O939" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="P939" s="2" t="s">
         <v>33</v>
@@ -68567,22 +68594,22 @@
         <v>22</v>
       </c>
       <c r="D940" s="2" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
       <c r="E940" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F940" s="2" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="G940" s="1" t="s">
-        <v>194</v>
+        <v>1101</v>
       </c>
       <c r="H940" s="1" t="s">
-        <v>195</v>
+        <v>1102</v>
       </c>
       <c r="I940" s="1" t="s">
-        <v>196</v>
+        <v>1102</v>
       </c>
       <c r="J940" s="2" t="s">
         <v>28</v>
@@ -68597,10 +68624,10 @@
         <v>31</v>
       </c>
       <c r="N940" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="O940" s="2" t="s">
-        <v>606</v>
+        <v>50</v>
       </c>
       <c r="P940" s="2" t="s">
         <v>33</v>
@@ -68635,22 +68662,22 @@
         <v>22</v>
       </c>
       <c r="D941" s="2" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
       <c r="E941" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F941" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G941" s="1" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="H941" s="1" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="I941" s="1" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="J941" s="2" t="s">
         <v>28</v>
@@ -68665,10 +68692,10 @@
         <v>31</v>
       </c>
       <c r="N941" s="2" t="s">
-        <v>526</v>
+        <v>116</v>
       </c>
       <c r="O941" s="2" t="s">
-        <v>1391</v>
+        <v>1240</v>
       </c>
       <c r="P941" s="2" t="s">
         <v>33</v>
@@ -68683,7 +68710,7 @@
         <v>33</v>
       </c>
       <c r="T941" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="U941" s="1" t="s">
         <v>34</v>
@@ -68703,22 +68730,22 @@
         <v>22</v>
       </c>
       <c r="D942" s="2" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="E942" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F942" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G942" s="1" t="s">
-        <v>745</v>
+        <v>318</v>
       </c>
       <c r="H942" s="1" t="s">
-        <v>746</v>
+        <v>319</v>
       </c>
       <c r="I942" s="1" t="s">
-        <v>747</v>
+        <v>320</v>
       </c>
       <c r="J942" s="2" t="s">
         <v>28</v>
@@ -68733,10 +68760,10 @@
         <v>31</v>
       </c>
       <c r="N942" s="2" t="s">
-        <v>33</v>
+        <v>488</v>
       </c>
       <c r="O942" s="2" t="s">
-        <v>56</v>
+        <v>1399</v>
       </c>
       <c r="P942" s="2" t="s">
         <v>33</v>
@@ -68751,7 +68778,7 @@
         <v>33</v>
       </c>
       <c r="T942" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="U942" s="1" t="s">
         <v>34</v>
@@ -68771,22 +68798,22 @@
         <v>22</v>
       </c>
       <c r="D943" s="2" t="s">
-        <v>1393</v>
+        <v>1400</v>
       </c>
       <c r="E943" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F943" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G943" s="1" t="s">
-        <v>406</v>
+        <v>745</v>
       </c>
       <c r="H943" s="1" t="s">
-        <v>407</v>
+        <v>746</v>
       </c>
       <c r="I943" s="1" t="s">
-        <v>407</v>
+        <v>747</v>
       </c>
       <c r="J943" s="2" t="s">
         <v>28</v>
@@ -68804,7 +68831,7 @@
         <v>33</v>
       </c>
       <c r="O943" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P943" s="2" t="s">
         <v>33</v>
@@ -68839,22 +68866,22 @@
         <v>22</v>
       </c>
       <c r="D944" s="2" t="s">
-        <v>1394</v>
+        <v>1401</v>
       </c>
       <c r="E944" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F944" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G944" s="1" t="s">
-        <v>966</v>
+        <v>406</v>
       </c>
       <c r="H944" s="1" t="s">
-        <v>967</v>
+        <v>407</v>
       </c>
       <c r="I944" s="1" t="s">
-        <v>968</v>
+        <v>407</v>
       </c>
       <c r="J944" s="2" t="s">
         <v>28</v>
@@ -68872,7 +68899,7 @@
         <v>50</v>
       </c>
       <c r="O944" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="P944" s="2" t="s">
         <v>33</v>
@@ -68907,7 +68934,7 @@
         <v>22</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
       <c r="E945" s="2" t="s">
         <v>1352</v>
@@ -68937,7 +68964,7 @@
         <v>31</v>
       </c>
       <c r="N945" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O945" s="2" t="s">
         <v>58</v>
@@ -68975,7 +69002,7 @@
         <v>22</v>
       </c>
       <c r="D946" s="2" t="s">
-        <v>1396</v>
+        <v>1403</v>
       </c>
       <c r="E946" s="2" t="s">
         <v>1352</v>
@@ -69005,7 +69032,7 @@
         <v>31</v>
       </c>
       <c r="N946" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O946" s="2" t="s">
         <v>33</v>
@@ -69043,22 +69070,22 @@
         <v>22</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
       <c r="E947" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F947" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G947" s="1" t="s">
-        <v>918</v>
+        <v>411</v>
       </c>
       <c r="H947" s="1" t="s">
-        <v>919</v>
+        <v>412</v>
       </c>
       <c r="I947" s="1" t="s">
-        <v>919</v>
+        <v>412</v>
       </c>
       <c r="J947" s="2" t="s">
         <v>28</v>
@@ -69073,10 +69100,10 @@
         <v>31</v>
       </c>
       <c r="N947" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="O947" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="P947" s="2" t="s">
         <v>33</v>
@@ -69111,22 +69138,22 @@
         <v>22</v>
       </c>
       <c r="D948" s="2" t="s">
-        <v>1398</v>
+        <v>1405</v>
       </c>
       <c r="E948" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F948" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G948" s="1" t="s">
-        <v>974</v>
+        <v>918</v>
       </c>
       <c r="H948" s="1" t="s">
-        <v>975</v>
+        <v>919</v>
       </c>
       <c r="I948" s="1" t="s">
-        <v>975</v>
+        <v>919</v>
       </c>
       <c r="J948" s="2" t="s">
         <v>28</v>
@@ -69141,10 +69168,10 @@
         <v>31</v>
       </c>
       <c r="N948" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O948" s="2" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="P948" s="2" t="s">
         <v>33</v>
@@ -69179,22 +69206,22 @@
         <v>22</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
       <c r="E949" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F949" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G949" s="1" t="s">
-        <v>1306</v>
+        <v>974</v>
       </c>
       <c r="H949" s="1" t="s">
-        <v>1307</v>
+        <v>975</v>
       </c>
       <c r="I949" s="1" t="s">
-        <v>1307</v>
+        <v>975</v>
       </c>
       <c r="J949" s="2" t="s">
         <v>28</v>
@@ -69212,7 +69239,7 @@
         <v>33</v>
       </c>
       <c r="O949" s="2" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="P949" s="2" t="s">
         <v>33</v>
@@ -69247,22 +69274,22 @@
         <v>22</v>
       </c>
       <c r="D950" s="2" t="s">
-        <v>1400</v>
+        <v>1407</v>
       </c>
       <c r="E950" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F950" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G950" s="1" t="s">
-        <v>1212</v>
+        <v>1306</v>
       </c>
       <c r="H950" s="1" t="s">
-        <v>1213</v>
+        <v>1307</v>
       </c>
       <c r="I950" s="1" t="s">
-        <v>1213</v>
+        <v>1307</v>
       </c>
       <c r="J950" s="2" t="s">
         <v>28</v>
@@ -69315,22 +69342,22 @@
         <v>22</v>
       </c>
       <c r="D951" s="2" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="E951" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F951" s="2" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="G951" s="1" t="s">
-        <v>417</v>
+        <v>1212</v>
       </c>
       <c r="H951" s="1" t="s">
-        <v>418</v>
+        <v>1213</v>
       </c>
       <c r="I951" s="1" t="s">
-        <v>418</v>
+        <v>1213</v>
       </c>
       <c r="J951" s="2" t="s">
         <v>28</v>
@@ -69345,10 +69372,10 @@
         <v>31</v>
       </c>
       <c r="N951" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="O951" s="2" t="s">
-        <v>276</v>
+        <v>56</v>
       </c>
       <c r="P951" s="2" t="s">
         <v>33</v>
@@ -69383,22 +69410,22 @@
         <v>22</v>
       </c>
       <c r="D952" s="2" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
       <c r="E952" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F952" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G952" s="1" t="s">
-        <v>1312</v>
+        <v>417</v>
       </c>
       <c r="H952" s="1" t="s">
-        <v>1313</v>
+        <v>418</v>
       </c>
       <c r="I952" s="1" t="s">
-        <v>1314</v>
+        <v>418</v>
       </c>
       <c r="J952" s="2" t="s">
         <v>28</v>
@@ -69413,10 +69440,10 @@
         <v>31</v>
       </c>
       <c r="N952" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="O952" s="2" t="s">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="P952" s="2" t="s">
         <v>33</v>
@@ -69451,22 +69478,22 @@
         <v>22</v>
       </c>
       <c r="D953" s="2" t="s">
-        <v>1403</v>
+        <v>1410</v>
       </c>
       <c r="E953" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F953" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G953" s="1" t="s">
-        <v>1218</v>
+        <v>1312</v>
       </c>
       <c r="H953" s="1" t="s">
-        <v>1219</v>
+        <v>1313</v>
       </c>
       <c r="I953" s="1" t="s">
-        <v>1219</v>
+        <v>1314</v>
       </c>
       <c r="J953" s="2" t="s">
         <v>28</v>
@@ -69484,7 +69511,7 @@
         <v>33</v>
       </c>
       <c r="O953" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P953" s="2" t="s">
         <v>33</v>
@@ -69519,22 +69546,22 @@
         <v>22</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>1404</v>
+        <v>1411</v>
       </c>
       <c r="E954" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F954" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G954" s="1" t="s">
-        <v>504</v>
+        <v>1218</v>
       </c>
       <c r="H954" s="1" t="s">
-        <v>505</v>
+        <v>1219</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>506</v>
+        <v>1219</v>
       </c>
       <c r="J954" s="2" t="s">
         <v>28</v>
@@ -69552,7 +69579,7 @@
         <v>33</v>
       </c>
       <c r="O954" s="2" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="P954" s="2" t="s">
         <v>33</v>
@@ -69593,16 +69620,16 @@
         <v>1352</v>
       </c>
       <c r="F955" s="2" t="s">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="G955" s="1" t="s">
-        <v>53</v>
+        <v>504</v>
       </c>
       <c r="H955" s="1" t="s">
-        <v>54</v>
+        <v>505</v>
       </c>
       <c r="I955" s="1" t="s">
-        <v>54</v>
+        <v>506</v>
       </c>
       <c r="J955" s="2" t="s">
         <v>28</v>
@@ -69617,10 +69644,10 @@
         <v>31</v>
       </c>
       <c r="N955" s="2" t="s">
-        <v>1405</v>
+        <v>33</v>
       </c>
       <c r="O955" s="2" t="s">
-        <v>1406</v>
+        <v>244</v>
       </c>
       <c r="P955" s="2" t="s">
         <v>33</v>
@@ -69655,22 +69682,22 @@
         <v>22</v>
       </c>
       <c r="D956" s="2" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="E956" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F956" s="2" t="s">
-        <v>350</v>
+        <v>52</v>
       </c>
       <c r="G956" s="1" t="s">
-        <v>421</v>
+        <v>53</v>
       </c>
       <c r="H956" s="1" t="s">
-        <v>422</v>
+        <v>54</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>423</v>
+        <v>54</v>
       </c>
       <c r="J956" s="2" t="s">
         <v>28</v>
@@ -69685,10 +69712,10 @@
         <v>31</v>
       </c>
       <c r="N956" s="2" t="s">
-        <v>91</v>
+        <v>1413</v>
       </c>
       <c r="O956" s="2" t="s">
-        <v>95</v>
+        <v>1414</v>
       </c>
       <c r="P956" s="2" t="s">
         <v>33</v>
@@ -69723,22 +69750,22 @@
         <v>22</v>
       </c>
       <c r="D957" s="2" t="s">
-        <v>1408</v>
+        <v>1415</v>
       </c>
       <c r="E957" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F957" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G957" s="1" t="s">
-        <v>760</v>
+        <v>421</v>
       </c>
       <c r="H957" s="1" t="s">
-        <v>761</v>
+        <v>422</v>
       </c>
       <c r="I957" s="1" t="s">
-        <v>761</v>
+        <v>423</v>
       </c>
       <c r="J957" s="2" t="s">
         <v>28</v>
@@ -69753,10 +69780,10 @@
         <v>31</v>
       </c>
       <c r="N957" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="O957" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="P957" s="2" t="s">
         <v>33</v>
@@ -69791,22 +69818,22 @@
         <v>22</v>
       </c>
       <c r="D958" s="2" t="s">
-        <v>1409</v>
+        <v>1416</v>
       </c>
       <c r="E958" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G958" s="1" t="s">
-        <v>425</v>
+        <v>760</v>
       </c>
       <c r="H958" s="1" t="s">
-        <v>426</v>
+        <v>761</v>
       </c>
       <c r="I958" s="1" t="s">
-        <v>426</v>
+        <v>761</v>
       </c>
       <c r="J958" s="2" t="s">
         <v>28</v>
@@ -69821,10 +69848,10 @@
         <v>31</v>
       </c>
       <c r="N958" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O958" s="2" t="s">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="P958" s="2" t="s">
         <v>33</v>
@@ -69859,22 +69886,22 @@
         <v>22</v>
       </c>
       <c r="D959" s="2" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
       <c r="E959" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F959" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G959" s="1" t="s">
-        <v>1229</v>
+        <v>425</v>
       </c>
       <c r="H959" s="1" t="s">
-        <v>1230</v>
+        <v>426</v>
       </c>
       <c r="I959" s="1" t="s">
-        <v>1231</v>
+        <v>426</v>
       </c>
       <c r="J959" s="2" t="s">
         <v>28</v>
@@ -69889,10 +69916,10 @@
         <v>31</v>
       </c>
       <c r="N959" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="O959" s="2" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="P959" s="2" t="s">
         <v>33</v>
@@ -69927,22 +69954,22 @@
         <v>22</v>
       </c>
       <c r="D960" s="2" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
       <c r="E960" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F960" s="2" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="G960" s="1" t="s">
-        <v>201</v>
+        <v>1229</v>
       </c>
       <c r="H960" s="1" t="s">
-        <v>202</v>
+        <v>1230</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>202</v>
+        <v>1231</v>
       </c>
       <c r="J960" s="2" t="s">
         <v>28</v>
@@ -69957,10 +69984,10 @@
         <v>31</v>
       </c>
       <c r="N960" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O960" s="2" t="s">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="P960" s="2" t="s">
         <v>33</v>
@@ -70001,16 +70028,16 @@
         <v>1352</v>
       </c>
       <c r="F961" s="2" t="s">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="G961" s="1" t="s">
-        <v>1234</v>
+        <v>201</v>
       </c>
       <c r="H961" s="1" t="s">
-        <v>1235</v>
+        <v>202</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>1236</v>
+        <v>202</v>
       </c>
       <c r="J961" s="2" t="s">
         <v>28</v>
@@ -70025,10 +70052,10 @@
         <v>31</v>
       </c>
       <c r="N961" s="2" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="O961" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P961" s="2" t="s">
         <v>33</v>
@@ -70063,22 +70090,22 @@
         <v>22</v>
       </c>
       <c r="D962" s="2" t="s">
-        <v>1412</v>
+        <v>1419</v>
       </c>
       <c r="E962" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F962" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G962" s="1" t="s">
-        <v>1128</v>
+        <v>1234</v>
       </c>
       <c r="H962" s="1" t="s">
-        <v>1129</v>
+        <v>1235</v>
       </c>
       <c r="I962" s="1" t="s">
-        <v>1129</v>
+        <v>1236</v>
       </c>
       <c r="J962" s="2" t="s">
         <v>28</v>
@@ -70096,7 +70123,7 @@
         <v>33</v>
       </c>
       <c r="O962" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="P962" s="2" t="s">
         <v>33</v>
@@ -70137,16 +70164,16 @@
         <v>1352</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G963" s="1" t="s">
-        <v>1328</v>
+        <v>1128</v>
       </c>
       <c r="H963" s="1" t="s">
-        <v>1329</v>
+        <v>1129</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>1330</v>
+        <v>1129</v>
       </c>
       <c r="J963" s="2" t="s">
         <v>28</v>
@@ -70199,22 +70226,22 @@
         <v>22</v>
       </c>
       <c r="D964" s="2" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
       <c r="E964" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G964" s="1" t="s">
-        <v>427</v>
+        <v>1328</v>
       </c>
       <c r="H964" s="1" t="s">
-        <v>428</v>
+        <v>1329</v>
       </c>
       <c r="I964" s="1" t="s">
-        <v>429</v>
+        <v>1330</v>
       </c>
       <c r="J964" s="2" t="s">
         <v>28</v>
@@ -70232,7 +70259,7 @@
         <v>33</v>
       </c>
       <c r="O964" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="P964" s="2" t="s">
         <v>33</v>
@@ -70267,22 +70294,22 @@
         <v>22</v>
       </c>
       <c r="D965" s="2" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="E965" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F965" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G965" s="1" t="s">
-        <v>1132</v>
+        <v>427</v>
       </c>
       <c r="H965" s="1" t="s">
-        <v>1133</v>
+        <v>428</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>1134</v>
+        <v>429</v>
       </c>
       <c r="J965" s="2" t="s">
         <v>28</v>
@@ -70300,7 +70327,7 @@
         <v>33</v>
       </c>
       <c r="O965" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P965" s="2" t="s">
         <v>33</v>
@@ -70335,22 +70362,22 @@
         <v>22</v>
       </c>
       <c r="D966" s="2" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
       <c r="E966" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F966" s="2" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="G966" s="1" t="s">
-        <v>327</v>
+        <v>1132</v>
       </c>
       <c r="H966" s="1" t="s">
-        <v>328</v>
+        <v>1133</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>328</v>
+        <v>1134</v>
       </c>
       <c r="J966" s="2" t="s">
         <v>28</v>
@@ -70365,10 +70392,10 @@
         <v>31</v>
       </c>
       <c r="N966" s="2" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="O966" s="2" t="s">
-        <v>696</v>
+        <v>84</v>
       </c>
       <c r="P966" s="2" t="s">
         <v>33</v>
@@ -70409,16 +70436,16 @@
         <v>1352</v>
       </c>
       <c r="F967" s="2" t="s">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="G967" s="1" t="s">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="H967" s="1" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="J967" s="2" t="s">
         <v>28</v>
@@ -70433,10 +70460,10 @@
         <v>31</v>
       </c>
       <c r="N967" s="2" t="s">
-        <v>1416</v>
+        <v>43</v>
       </c>
       <c r="O967" s="2" t="s">
-        <v>1417</v>
+        <v>695</v>
       </c>
       <c r="P967" s="2" t="s">
         <v>33</v>
@@ -70471,22 +70498,22 @@
         <v>22</v>
       </c>
       <c r="D968" s="2" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="E968" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F968" s="2" t="s">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="G968" s="1" t="s">
-        <v>771</v>
+        <v>78</v>
       </c>
       <c r="H968" s="1" t="s">
-        <v>772</v>
+        <v>79</v>
       </c>
       <c r="I968" s="1" t="s">
-        <v>772</v>
+        <v>80</v>
       </c>
       <c r="J968" s="2" t="s">
         <v>28</v>
@@ -70501,10 +70528,10 @@
         <v>31</v>
       </c>
       <c r="N968" s="2" t="s">
-        <v>33</v>
+        <v>1424</v>
       </c>
       <c r="O968" s="2" t="s">
-        <v>56</v>
+        <v>1425</v>
       </c>
       <c r="P968" s="2" t="s">
         <v>33</v>
@@ -70539,22 +70566,22 @@
         <v>22</v>
       </c>
       <c r="D969" s="2" t="s">
-        <v>1419</v>
+        <v>1426</v>
       </c>
       <c r="E969" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F969" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G969" s="1" t="s">
-        <v>433</v>
+        <v>771</v>
       </c>
       <c r="H969" s="1" t="s">
-        <v>434</v>
+        <v>772</v>
       </c>
       <c r="I969" s="1" t="s">
-        <v>434</v>
+        <v>772</v>
       </c>
       <c r="J969" s="2" t="s">
         <v>28</v>
@@ -70569,10 +70596,10 @@
         <v>31</v>
       </c>
       <c r="N969" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="O969" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P969" s="2" t="s">
         <v>33</v>
@@ -70607,22 +70634,22 @@
         <v>22</v>
       </c>
       <c r="D970" s="2" t="s">
-        <v>1420</v>
+        <v>1427</v>
       </c>
       <c r="E970" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F970" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G970" s="1" t="s">
-        <v>711</v>
+        <v>433</v>
       </c>
       <c r="H970" s="1" t="s">
-        <v>712</v>
+        <v>434</v>
       </c>
       <c r="I970" s="1" t="s">
-        <v>713</v>
+        <v>434</v>
       </c>
       <c r="J970" s="2" t="s">
         <v>28</v>
@@ -70637,10 +70664,10 @@
         <v>31</v>
       </c>
       <c r="N970" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O970" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P970" s="2" t="s">
         <v>33</v>
@@ -70675,22 +70702,22 @@
         <v>22</v>
       </c>
       <c r="D971" s="2" t="s">
-        <v>1421</v>
+        <v>1428</v>
       </c>
       <c r="E971" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F971" s="2" t="s">
-        <v>293</v>
+        <v>408</v>
       </c>
       <c r="G971" s="1" t="s">
-        <v>1246</v>
+        <v>711</v>
       </c>
       <c r="H971" s="1" t="s">
-        <v>1247</v>
+        <v>712</v>
       </c>
       <c r="I971" s="1" t="s">
-        <v>1248</v>
+        <v>713</v>
       </c>
       <c r="J971" s="2" t="s">
         <v>28</v>
@@ -70708,7 +70735,7 @@
         <v>33</v>
       </c>
       <c r="O971" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P971" s="2" t="s">
         <v>33</v>
@@ -70749,16 +70776,16 @@
         <v>1352</v>
       </c>
       <c r="F972" s="2" t="s">
-        <v>474</v>
+        <v>293</v>
       </c>
       <c r="G972" s="1" t="s">
-        <v>715</v>
+        <v>1246</v>
       </c>
       <c r="H972" s="1" t="s">
-        <v>716</v>
+        <v>1247</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>717</v>
+        <v>1248</v>
       </c>
       <c r="J972" s="2" t="s">
         <v>28</v>
@@ -70773,10 +70800,10 @@
         <v>31</v>
       </c>
       <c r="N972" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O972" s="2" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="P972" s="2" t="s">
         <v>33</v>
@@ -70788,7 +70815,7 @@
         <v>33</v>
       </c>
       <c r="S972" s="2" t="s">
-        <v>618</v>
+        <v>33</v>
       </c>
       <c r="T972" s="2" t="s">
         <v>33</v>
@@ -70817,16 +70844,16 @@
         <v>1352</v>
       </c>
       <c r="F973" s="2" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="G973" s="1" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="H973" s="1" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="J973" s="2" t="s">
         <v>28</v>
@@ -70841,10 +70868,10 @@
         <v>31</v>
       </c>
       <c r="N973" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O973" s="2" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="P973" s="2" t="s">
         <v>33</v>
@@ -70856,7 +70883,7 @@
         <v>33</v>
       </c>
       <c r="S973" s="2" t="s">
-        <v>33</v>
+        <v>626</v>
       </c>
       <c r="T973" s="2" t="s">
         <v>33</v>
@@ -70879,22 +70906,22 @@
         <v>22</v>
       </c>
       <c r="D974" s="2" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="E974" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F974" s="2" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="G974" s="1" t="s">
-        <v>993</v>
+        <v>669</v>
       </c>
       <c r="H974" s="1" t="s">
-        <v>994</v>
+        <v>670</v>
       </c>
       <c r="I974" s="1" t="s">
-        <v>994</v>
+        <v>670</v>
       </c>
       <c r="J974" s="2" t="s">
         <v>28</v>
@@ -70909,10 +70936,10 @@
         <v>31</v>
       </c>
       <c r="N974" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O974" s="2" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="P974" s="2" t="s">
         <v>33</v>
@@ -70947,22 +70974,22 @@
         <v>22</v>
       </c>
       <c r="D975" s="2" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
       <c r="E975" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F975" s="2" t="s">
-        <v>36</v>
+        <v>457</v>
       </c>
       <c r="G975" s="1" t="s">
-        <v>37</v>
+        <v>993</v>
       </c>
       <c r="H975" s="1" t="s">
-        <v>38</v>
+        <v>994</v>
       </c>
       <c r="I975" s="1" t="s">
-        <v>39</v>
+        <v>994</v>
       </c>
       <c r="J975" s="2" t="s">
         <v>28</v>
@@ -70980,7 +71007,7 @@
         <v>33</v>
       </c>
       <c r="O975" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="P975" s="2" t="s">
         <v>33</v>
@@ -70995,7 +71022,7 @@
         <v>33</v>
       </c>
       <c r="T975" s="2" t="s">
-        <v>1424</v>
+        <v>33</v>
       </c>
       <c r="U975" s="1" t="s">
         <v>34</v>
@@ -71015,22 +71042,22 @@
         <v>22</v>
       </c>
       <c r="D976" s="2" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
       <c r="E976" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F976" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G976" s="1" t="s">
-        <v>438</v>
+        <v>37</v>
       </c>
       <c r="H976" s="1" t="s">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="I976" s="1" t="s">
-        <v>439</v>
+        <v>39</v>
       </c>
       <c r="J976" s="2" t="s">
         <v>28</v>
@@ -71045,10 +71072,10 @@
         <v>31</v>
       </c>
       <c r="N976" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O976" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="P976" s="2" t="s">
         <v>33</v>
@@ -71063,7 +71090,7 @@
         <v>33</v>
       </c>
       <c r="T976" s="2" t="s">
-        <v>33</v>
+        <v>1432</v>
       </c>
       <c r="U976" s="1" t="s">
         <v>34</v>
@@ -71083,22 +71110,22 @@
         <v>22</v>
       </c>
       <c r="D977" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="E977" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F977" s="2" t="s">
-        <v>461</v>
+        <v>46</v>
       </c>
       <c r="G977" s="1" t="s">
-        <v>1145</v>
+        <v>438</v>
       </c>
       <c r="H977" s="1" t="s">
-        <v>1146</v>
+        <v>439</v>
       </c>
       <c r="I977" s="1" t="s">
-        <v>1147</v>
+        <v>439</v>
       </c>
       <c r="J977" s="2" t="s">
         <v>28</v>
@@ -71113,10 +71140,10 @@
         <v>31</v>
       </c>
       <c r="N977" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="O977" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="P977" s="2" t="s">
         <v>33</v>
@@ -71151,22 +71178,22 @@
         <v>22</v>
       </c>
       <c r="D978" s="2" t="s">
-        <v>1427</v>
+        <v>1434</v>
       </c>
       <c r="E978" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F978" s="2" t="s">
-        <v>295</v>
+        <v>461</v>
       </c>
       <c r="G978" s="1" t="s">
-        <v>296</v>
+        <v>1145</v>
       </c>
       <c r="H978" s="1" t="s">
-        <v>297</v>
+        <v>1146</v>
       </c>
       <c r="I978" s="1" t="s">
-        <v>297</v>
+        <v>1147</v>
       </c>
       <c r="J978" s="2" t="s">
         <v>28</v>
@@ -71181,10 +71208,10 @@
         <v>31</v>
       </c>
       <c r="N978" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="O978" s="2" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="P978" s="2" t="s">
         <v>33</v>
@@ -71219,60 +71246,196 @@
         <v>22</v>
       </c>
       <c r="D979" s="2" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
       <c r="E979" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F979" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G979" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H979" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I979" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J979" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K979" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L979" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M979" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N979" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O979" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P979" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q979" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R979" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S979" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T979" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U979" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V979" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C980" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D980" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E980" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F980" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G980" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H980" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I980" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J980" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K980" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L980" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M980" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N980" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O980" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P980" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q980" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R980" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S980" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T980" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U980" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V980" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C981" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D981" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E981" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F981" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G979" s="1" t="s">
+      <c r="G981" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H979" s="1" t="s">
+      <c r="H981" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I979" s="1" t="s">
+      <c r="I981" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J979" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K979" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L979" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M979" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N979" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="O979" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="P979" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q979" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R979" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S979" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T979" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U979" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="V979" s="2" t="s">
+      <c r="J981" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K981" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L981" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M981" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N981" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O981" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P981" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q981" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R981" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S981" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T981" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U981" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="V981" s="2" t="s">
         <v>33</v>
       </c>
     </row>
